--- a/data CHILE/dta/region_summary.xlsx
+++ b/data CHILE/dta/region_summary.xlsx
@@ -1,6 +1,6 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" mc:Ignorable="x15 xr xr6 xr10">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20408"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Users\u_sociales\Documents\GitHub\Streamlit---Dashboard\data CHILE\dta\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{44688A04-E848-49AA-B525-A5E5DA08238E}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{530BED31-A0A0-4A0B-8A26-3ACAA530961C}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7545"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7545" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="region_summary" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="152" uniqueCount="29">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="153" uniqueCount="30">
   <si>
     <t>region_ID</t>
   </si>
@@ -107,12 +107,15 @@
   </si>
   <si>
     <t>Ñuble</t>
+  </si>
+  <si>
+    <t>codregion</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="18" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -590,8 +593,9 @@
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="42">
     <cellStyle name="20% - Énfasis1" xfId="19" builtinId="30" customBuiltin="1"/>
@@ -946,16 +950,16 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H49"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:J49"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:A1048576"/>
+      <selection activeCell="F6" sqref="F6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -980,8 +984,11 @@
       <c r="H1" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I1" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>1</v>
       </c>
@@ -997,8 +1004,11 @@
       <c r="H2" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I2">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>1</v>
       </c>
@@ -1014,8 +1024,11 @@
       <c r="H3" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I3">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>1</v>
       </c>
@@ -1040,8 +1053,11 @@
       <c r="H4" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I4">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>2</v>
       </c>
@@ -1057,8 +1073,11 @@
       <c r="H5" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I5">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>2</v>
       </c>
@@ -1074,8 +1093,12 @@
       <c r="H6" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I6">
+        <v>15</v>
+      </c>
+      <c r="J6" s="1"/>
+    </row>
+    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>2</v>
       </c>
@@ -1091,8 +1114,11 @@
       <c r="H7" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I7">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>3</v>
       </c>
@@ -1108,8 +1134,11 @@
       <c r="H8" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I8">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>3</v>
       </c>
@@ -1125,8 +1154,11 @@
       <c r="H9" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I9">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>3</v>
       </c>
@@ -1142,8 +1174,11 @@
       <c r="H10" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I10">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A11">
         <v>4</v>
       </c>
@@ -1168,8 +1203,11 @@
       <c r="H11" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I11">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A12">
         <v>4</v>
       </c>
@@ -1185,8 +1223,11 @@
       <c r="H12" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I12">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A13">
         <v>4</v>
       </c>
@@ -1211,8 +1252,11 @@
       <c r="H13" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I13">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A14">
         <v>5</v>
       </c>
@@ -1228,8 +1272,11 @@
       <c r="H14" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I14">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="15" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A15">
         <v>5</v>
       </c>
@@ -1254,8 +1301,11 @@
       <c r="H15" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I15">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="16" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A16">
         <v>5</v>
       </c>
@@ -1280,8 +1330,11 @@
       <c r="H16" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I16">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="17" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A17">
         <v>6</v>
       </c>
@@ -1297,8 +1350,11 @@
       <c r="H17" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I17">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="18" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A18">
         <v>6</v>
       </c>
@@ -1314,8 +1370,11 @@
       <c r="H18" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I18">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="19" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A19">
         <v>6</v>
       </c>
@@ -1340,8 +1399,11 @@
       <c r="H19" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="20" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I19">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="20" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A20">
         <v>7</v>
       </c>
@@ -1366,8 +1428,11 @@
       <c r="H20" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="21" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I20">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="21" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A21">
         <v>7</v>
       </c>
@@ -1383,8 +1448,11 @@
       <c r="H21" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="22" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I21">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="22" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A22">
         <v>7</v>
       </c>
@@ -1409,8 +1477,11 @@
       <c r="H22" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="23" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I22">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="23" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A23">
         <v>8</v>
       </c>
@@ -1435,8 +1506,11 @@
       <c r="H23" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="24" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I23">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="24" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A24">
         <v>8</v>
       </c>
@@ -1461,8 +1535,11 @@
       <c r="H24" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="25" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I24">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="25" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A25">
         <v>8</v>
       </c>
@@ -1487,8 +1564,11 @@
       <c r="H25" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="26" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I25">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="26" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A26">
         <v>9</v>
       </c>
@@ -1504,8 +1584,11 @@
       <c r="H26" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="27" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I26">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="27" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A27">
         <v>9</v>
       </c>
@@ -1521,8 +1604,11 @@
       <c r="H27" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="28" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I27">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="28" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A28">
         <v>9</v>
       </c>
@@ -1538,8 +1624,11 @@
       <c r="H28" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="29" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I28">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="29" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A29">
         <v>10</v>
       </c>
@@ -1555,8 +1644,11 @@
       <c r="H29" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="30" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I29">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="30" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A30">
         <v>10</v>
       </c>
@@ -1572,8 +1664,11 @@
       <c r="H30" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="31" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I30">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="31" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A31">
         <v>10</v>
       </c>
@@ -1598,8 +1693,11 @@
       <c r="H31" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="32" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I31">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="32" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A32">
         <v>11</v>
       </c>
@@ -1615,8 +1713,11 @@
       <c r="H32" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="33" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I32">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="33" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A33">
         <v>11</v>
       </c>
@@ -1632,8 +1733,11 @@
       <c r="H33" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="34" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I33">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="34" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A34">
         <v>11</v>
       </c>
@@ -1649,8 +1753,11 @@
       <c r="H34" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="35" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I34">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="35" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A35">
         <v>12</v>
       </c>
@@ -1675,8 +1782,11 @@
       <c r="H35" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="36" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I35">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="36" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A36">
         <v>12</v>
       </c>
@@ -1701,8 +1811,11 @@
       <c r="H36" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="37" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I36">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="37" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A37">
         <v>12</v>
       </c>
@@ -1718,8 +1831,11 @@
       <c r="H37" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="38" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I37">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="38" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A38">
         <v>13</v>
       </c>
@@ -1744,8 +1860,11 @@
       <c r="H38" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="39" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I38">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="39" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A39">
         <v>13</v>
       </c>
@@ -1761,8 +1880,11 @@
       <c r="H39" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="40" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I39">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="40" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A40">
         <v>13</v>
       </c>
@@ -1787,8 +1909,11 @@
       <c r="H40" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="41" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I40">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="41" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A41">
         <v>14</v>
       </c>
@@ -1804,8 +1929,11 @@
       <c r="H41" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="42" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I41">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="42" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A42">
         <v>14</v>
       </c>
@@ -1821,8 +1949,11 @@
       <c r="H42" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="43" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I42">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="43" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A43">
         <v>14</v>
       </c>
@@ -1838,8 +1969,11 @@
       <c r="H43" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="44" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I43">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="44" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A44">
         <v>15</v>
       </c>
@@ -1855,8 +1989,11 @@
       <c r="H44" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="45" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I44">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="45" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A45">
         <v>15</v>
       </c>
@@ -1872,8 +2009,11 @@
       <c r="H45" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="46" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I45">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="46" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A46">
         <v>15</v>
       </c>
@@ -1898,8 +2038,11 @@
       <c r="H46" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="47" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I46">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="47" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A47">
         <v>16</v>
       </c>
@@ -1915,8 +2058,11 @@
       <c r="H47" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="48" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I47">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="48" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A48">
         <v>16</v>
       </c>
@@ -1932,8 +2078,11 @@
       <c r="H48" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="49" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I48">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="49" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A49">
         <v>16</v>
       </c>
@@ -1958,8 +2107,12 @@
       <c r="H49" t="s">
         <v>13</v>
       </c>
+      <c r="I49">
+        <v>16</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>